--- a/biology/Botanique/Ophrys_melitensis/Ophrys_melitensis.xlsx
+++ b/biology/Botanique/Ophrys_melitensis/Ophrys_melitensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys melitensis, l'Ophrys de Malte, est une espèce de plantes dicotylédones de la famille des Orchidaceae, sous-famille des Orchidoideae, endémique de l'archipel maltais.
-C'est une plante herbacée vivace par son bulbe (géophyte) dont les fleurs sont pollinisées par une espèce d'abeilles, Chalicodoma sicula. Ce caractère a justifié son rattachement au « groupe d'Ophrys bertolonii », qui regroupe 11 espèces proches. C'est la seule espèce du groupe présente à Malte[1].
-Cette espèce est strictement protégée par la législation nationale et européenne, et des zones spéciales de conservation ont été désignées pour assurer sa protection et celle de son habitat[2].
+C'est une plante herbacée vivace par son bulbe (géophyte) dont les fleurs sont pollinisées par une espèce d'abeilles, Chalicodoma sicula. Ce caractère a justifié son rattachement au « groupe d'Ophrys bertolonii », qui regroupe 11 espèces proches. C'est la seule espèce du groupe présente à Malte.
+Cette espèce est strictement protégée par la législation nationale et européenne, et des zones spéciales de conservation ont été désignées pour assurer sa protection et celle de son habitat.
 </t>
         </is>
       </c>
@@ -513,13 +525,50 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce d'Orchidées a été décrite initialement par le botaniste allemand Hans-Erich Salkowski comme une sous-espèce d’Ophrys sphegodes, sous le nom d’Ophrys sphegodes subsp. melitensis (basionyme), et publiée en 1992 dans  Mitteilungsbl. Arbeitskreis Heimische Orchid. Baden-Württemberg 24(4): 633, 640[3].
-Elle a été renommée sous le nom d’Ophrys melitensis  par Jean Devillers-Terschuren et Pierre Devillers en 1994 (Naturalistes Belges, bulletin Mensuel, 75(Orchid. 7): 380)[4].
-Synonymes
-Selon The Plant List            (15 juillet 2021)[5] :
-Ophrys aurelia P.Delforge, Devillers-Tersch. &amp; Devillers[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce d'Orchidées a été décrite initialement par le botaniste allemand Hans-Erich Salkowski comme une sous-espèce d’Ophrys sphegodes, sous le nom d’Ophrys sphegodes subsp. melitensis (basionyme), et publiée en 1992 dans  Mitteilungsbl. Arbeitskreis Heimische Orchid. Baden-Württemberg 24(4): 633, 640.
+Elle a été renommée sous le nom d’Ophrys melitensis  par Jean Devillers-Terschuren et Pierre Devillers en 1994 (Naturalistes Belges, bulletin Mensuel, 75(Orchid. 7): 380).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ophrys_melitensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophrys_melitensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 juillet 2021) :
+Ophrys aurelia P.Delforge, Devillers-Tersch. &amp; Devillers
 Ophrys balearica P.Delforge
 Ophrys catalaunica O.Danesch &amp; E.Danesch
 Ophrys disjecta Murr
